--- a/app/config/tables/geotagger/forms/geotagger/geotagger.xlsx
+++ b/app/config/tables/geotagger/forms/geotagger/geotagger.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\geotagger\forms\geotagger\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="settings" sheetId="3" r:id="rId2"/>
+    <sheet name="properties" sheetId="4" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +116,75 @@
   </si>
   <si>
     <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["Description","Image_uriFragment","Location_latitude","Location_longitude","Date_and_Time"]</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>config/tables/geotagger/html/geo_detail.html</t>
+  </si>
+  <si>
+    <t>keyColorRuleType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>config/tables/geotagger/html/geo_list.html</t>
+  </si>
+  <si>
+    <t>mapListViewFileName</t>
+  </si>
+  <si>
+    <t>TableMapFragment</t>
+  </si>
+  <si>
+    <t>keyMapLatCol</t>
+  </si>
+  <si>
+    <t>Location_latitude</t>
+  </si>
+  <si>
+    <t>keyMapLongCol</t>
+  </si>
+  <si>
+    <t>Location_longitude</t>
   </si>
 </sst>
 </file>
@@ -156,6 +231,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -350,6 +426,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -679,22 +758,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.77734375" style="5"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -714,7 +793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -731,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -748,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -763,7 +842,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -781,16 +860,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="14"/>
     </row>
   </sheetData>
@@ -807,21 +886,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -848,7 +1101,7 @@
         <v>20140514</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -856,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>

--- a/app/config/tables/geotagger/forms/geotagger/geotagger.xlsx
+++ b/app/config/tables/geotagger/forms/geotagger/geotagger.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -46,21 +46,12 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>Capture the GPS coordinates of this location</t>
   </si>
   <si>
-    <t>buttonLabel</t>
-  </si>
-  <si>
     <t>Record Location</t>
   </si>
   <si>
@@ -185,12 +173,24 @@
   </si>
   <si>
     <t>Location_longitude</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.button_label.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -769,11 +769,11 @@
     <col min="3" max="3" width="38.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="5"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -781,30 +781,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="14" t="b">
         <v>1</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>1</v>
@@ -832,13 +832,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -847,17 +847,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -902,155 +902,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1076,13 +1076,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,12 +1090,12 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>20140514</v>
@@ -1103,23 +1103,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="13" t="b">
         <v>1</v>
